--- a/problem6.xlsx
+++ b/problem6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsheu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489380A9-7E93-441E-8FA1-1BB29FF0011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1673DB7-AF06-4766-8322-432405D6A8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,8 +409,8 @@
   </sheetPr>
   <dimension ref="A1:C1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
-      <selection activeCell="A742" sqref="A742:XFD742"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -9246,7 +9246,7 @@
         <v>1.07</v>
       </c>
       <c r="C736">
-        <f t="shared" si="11"/>
+        <f>IF(A736&gt;=1,1,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -9258,8 +9258,8 @@
         <v>2.6</v>
       </c>
       <c r="C737">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" ref="C737:C800" si="12">IF(A737&gt;=1,1,2)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -9270,8 +9270,8 @@
         <v>1.53</v>
       </c>
       <c r="C738">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
@@ -9282,7 +9282,7 @@
         <v>2.13</v>
       </c>
       <c r="C739">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9294,7 +9294,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="C740">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9306,7 +9306,7 @@
         <v>1.92</v>
       </c>
       <c r="C741">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
         <v>5.91</v>
       </c>
       <c r="C742">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9330,7 +9330,7 @@
         <v>5.84</v>
       </c>
       <c r="C743">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9342,8 +9342,8 @@
         <v>1.54</v>
       </c>
       <c r="C744">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
@@ -9354,7 +9354,7 @@
         <v>5.09</v>
       </c>
       <c r="C745">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
         <v>6.72</v>
       </c>
       <c r="C746">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9378,7 +9378,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="C747">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9390,7 +9390,7 @@
         <v>3.41</v>
       </c>
       <c r="C748">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9402,8 +9402,8 @@
         <v>1.63</v>
       </c>
       <c r="C749">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
@@ -9414,8 +9414,8 @@
         <v>1.38</v>
       </c>
       <c r="C750">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
@@ -9426,7 +9426,7 @@
         <v>3.46</v>
       </c>
       <c r="C751">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9438,7 +9438,7 @@
         <v>0.93</v>
       </c>
       <c r="C752">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9450,8 +9450,8 @@
         <v>2.21</v>
       </c>
       <c r="C753">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
@@ -9462,7 +9462,7 @@
         <v>7.51</v>
       </c>
       <c r="C754">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9474,7 +9474,7 @@
         <v>1.21</v>
       </c>
       <c r="C755">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9486,8 +9486,8 @@
         <v>2.88</v>
       </c>
       <c r="C756">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
@@ -9498,7 +9498,7 @@
         <v>1.71</v>
       </c>
       <c r="C757">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9510,7 +9510,7 @@
         <v>0.98</v>
       </c>
       <c r="C758">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9522,7 +9522,7 @@
         <v>3.58</v>
       </c>
       <c r="C759">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9534,7 +9534,7 @@
         <v>1.21</v>
       </c>
       <c r="C760">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9546,8 +9546,8 @@
         <v>1.32</v>
       </c>
       <c r="C761">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
@@ -9558,8 +9558,8 @@
         <v>0.78</v>
       </c>
       <c r="C762">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
@@ -9570,8 +9570,8 @@
         <v>0.88</v>
       </c>
       <c r="C763">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
@@ -9582,7 +9582,7 @@
         <v>2.29</v>
       </c>
       <c r="C764">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9594,7 +9594,7 @@
         <v>2.31</v>
       </c>
       <c r="C765">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9606,8 +9606,8 @@
         <v>1.41</v>
       </c>
       <c r="C766">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
@@ -9618,8 +9618,8 @@
         <v>1.44</v>
       </c>
       <c r="C767">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
@@ -9630,8 +9630,8 @@
         <v>1.53</v>
       </c>
       <c r="C768">
-        <f t="shared" ref="C768:C831" si="12">IF(A768&gt;=0,1,2)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
@@ -9667,7 +9667,7 @@
       </c>
       <c r="C771">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="C777">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="C778">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="C780">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="C785">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="C787">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
@@ -9871,7 +9871,7 @@
       </c>
       <c r="C788">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
@@ -10026,7 +10026,7 @@
         <v>12.84</v>
       </c>
       <c r="C801">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C801:C864" si="13">IF(A801&gt;=1,1,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -10038,8 +10038,8 @@
         <v>0.25</v>
       </c>
       <c r="C802">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.3">
@@ -10050,7 +10050,7 @@
         <v>1.89</v>
       </c>
       <c r="C803">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10062,7 +10062,7 @@
         <v>1.17</v>
       </c>
       <c r="C804">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10074,7 +10074,7 @@
         <v>0.78</v>
       </c>
       <c r="C805">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10086,7 +10086,7 @@
         <v>0.94</v>
       </c>
       <c r="C806">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10098,7 +10098,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="C807">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
         <v>1.22</v>
       </c>
       <c r="C808">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
         <v>6.24</v>
       </c>
       <c r="C809">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10134,7 +10134,7 @@
         <v>3.32</v>
       </c>
       <c r="C810">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10146,7 +10146,7 @@
         <v>2.88</v>
       </c>
       <c r="C811">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
         <v>4.17</v>
       </c>
       <c r="C812">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10170,7 +10170,7 @@
         <v>2.39</v>
       </c>
       <c r="C813">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
         <v>2.46</v>
       </c>
       <c r="C814">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
         <v>1.52</v>
       </c>
       <c r="C815">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
         <v>1.4</v>
       </c>
       <c r="C816">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
         <v>2.39</v>
       </c>
       <c r="C817">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10230,7 +10230,7 @@
         <v>2.13</v>
       </c>
       <c r="C818">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10242,8 +10242,8 @@
         <v>0.49</v>
       </c>
       <c r="C819">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
@@ -10254,7 +10254,7 @@
         <v>2.39</v>
       </c>
       <c r="C820">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10266,7 +10266,7 @@
         <v>1.63</v>
       </c>
       <c r="C821">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10278,8 +10278,8 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="C822">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
@@ -10290,7 +10290,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="C823">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10302,7 +10302,7 @@
         <v>1.59</v>
       </c>
       <c r="C824">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10314,7 +10314,7 @@
         <v>3.56</v>
       </c>
       <c r="C825">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10326,7 +10326,7 @@
         <v>1.44</v>
       </c>
       <c r="C826">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
         <v>2.67</v>
       </c>
       <c r="C827">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10350,7 +10350,7 @@
         <v>1.7</v>
       </c>
       <c r="C828">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10362,8 +10362,8 @@
         <v>2.11</v>
       </c>
       <c r="C829">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
@@ -10374,7 +10374,7 @@
         <v>2.68</v>
       </c>
       <c r="C830">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
         <v>3.02</v>
       </c>
       <c r="C831">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
         <v>0.61</v>
       </c>
       <c r="C832">
-        <f t="shared" ref="C832:C895" si="13">IF(A832&gt;=0,1,2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="C838">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
@@ -10639,7 +10639,7 @@
       </c>
       <c r="C852">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.3">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="C858">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.3">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="C861">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
@@ -10794,7 +10794,7 @@
         <v>1.55</v>
       </c>
       <c r="C865">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C865:C928" si="14">IF(A865&gt;=1,1,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
         <v>2.68</v>
       </c>
       <c r="C866">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -10818,8 +10818,8 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="C867">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.3">
@@ -10830,7 +10830,7 @@
         <v>1.55</v>
       </c>
       <c r="C868">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -10842,8 +10842,8 @@
         <v>1.29</v>
       </c>
       <c r="C869">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
@@ -10854,7 +10854,7 @@
         <v>1.41</v>
       </c>
       <c r="C870">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
         <v>2.4</v>
       </c>
       <c r="C871">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
         <v>2.14</v>
       </c>
       <c r="C872">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -10890,7 +10890,7 @@
         <v>0.66</v>
       </c>
       <c r="C873">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10902,7 +10902,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="C874">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10914,7 +10914,7 @@
         <v>2.23</v>
       </c>
       <c r="C875">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
         <v>0.89</v>
       </c>
       <c r="C876">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
         <v>1.3</v>
       </c>
       <c r="C877">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10950,7 +10950,7 @@
         <v>0.82</v>
       </c>
       <c r="C878">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C879">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
         <v>0.88</v>
       </c>
       <c r="C880">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
         <v>0.94</v>
       </c>
       <c r="C881">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -10998,7 +10998,7 @@
         <v>0.7</v>
       </c>
       <c r="C882">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
         <v>1.85</v>
       </c>
       <c r="C883">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
         <v>0.99</v>
       </c>
       <c r="C884">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11034,7 +11034,7 @@
         <v>0.44</v>
       </c>
       <c r="C885">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
         <v>0.41</v>
       </c>
       <c r="C886">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C887">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11070,7 +11070,7 @@
         <v>1.55</v>
       </c>
       <c r="C888">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
         <v>2.21</v>
       </c>
       <c r="C889">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11094,7 +11094,7 @@
         <v>0.75</v>
       </c>
       <c r="C890">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11106,7 +11106,7 @@
         <v>5.27</v>
       </c>
       <c r="C891">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11118,7 +11118,7 @@
         <v>3.49</v>
       </c>
       <c r="C892">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
         <v>2.37</v>
       </c>
       <c r="C893">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11142,7 +11142,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="C894">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11154,7 +11154,7 @@
         <v>1.07</v>
       </c>
       <c r="C895">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
         <v>0.81</v>
       </c>
       <c r="C896">
-        <f t="shared" ref="C896:C959" si="14">IF(A896&gt;=0,1,2)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>
@@ -11562,7 +11562,7 @@
         <v>1.51</v>
       </c>
       <c r="C929">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C929:C992" si="15">IF(A929&gt;=1,1,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -11574,7 +11574,7 @@
         <v>1.69</v>
       </c>
       <c r="C930">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11586,7 +11586,7 @@
         <v>1.04</v>
       </c>
       <c r="C931">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
         <v>1.69</v>
       </c>
       <c r="C932">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11610,7 +11610,7 @@
         <v>0.92</v>
       </c>
       <c r="C933">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
         <v>1.44</v>
       </c>
       <c r="C934">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11634,7 +11634,7 @@
         <v>3.89</v>
       </c>
       <c r="C935">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
         <v>3.23</v>
       </c>
       <c r="C936">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11658,7 +11658,7 @@
         <v>2.81</v>
       </c>
       <c r="C937">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11670,7 +11670,7 @@
         <v>10.82</v>
       </c>
       <c r="C938">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11682,7 +11682,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="C939">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11694,7 +11694,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="C940">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
         <v>0.66</v>
       </c>
       <c r="C941">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
         <v>3.48</v>
       </c>
       <c r="C942">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11730,7 +11730,7 @@
         <v>0.87</v>
       </c>
       <c r="C943">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11742,7 +11742,7 @@
         <v>0.83</v>
       </c>
       <c r="C944">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11754,7 +11754,7 @@
         <v>1.84</v>
       </c>
       <c r="C945">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
         <v>0.78</v>
       </c>
       <c r="C946">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
         <v>1.61</v>
       </c>
       <c r="C947">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11790,7 +11790,7 @@
         <v>0.72</v>
       </c>
       <c r="C948">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11802,7 +11802,7 @@
         <v>2.68</v>
       </c>
       <c r="C949">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11814,7 +11814,7 @@
         <v>1.25</v>
       </c>
       <c r="C950">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
         <v>1.28</v>
       </c>
       <c r="C951">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C952">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11850,7 +11850,7 @@
         <v>3.86</v>
       </c>
       <c r="C953">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11862,7 +11862,7 @@
         <v>10.18</v>
       </c>
       <c r="C954">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11874,7 +11874,7 @@
         <v>1.26</v>
       </c>
       <c r="C955">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
         <v>3.11</v>
       </c>
       <c r="C956">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
         <v>1.34</v>
       </c>
       <c r="C957">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11910,7 +11910,7 @@
         <v>0.78</v>
       </c>
       <c r="C958">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11922,7 +11922,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="C959">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -11934,7 +11934,7 @@
         <v>3.42</v>
       </c>
       <c r="C960">
-        <f t="shared" ref="C960:C1023" si="15">IF(A960&gt;=0,1,2)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -12330,7 +12330,7 @@
         <v>1.06</v>
       </c>
       <c r="C993">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C993:C1036" si="16">IF(A993&gt;=1,1,2)</f>
         <v>2</v>
       </c>
     </row>
@@ -12342,7 +12342,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C994">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12354,7 +12354,7 @@
         <v>4.54</v>
       </c>
       <c r="C995">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12366,7 +12366,7 @@
         <v>2.87</v>
       </c>
       <c r="C996">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
         <v>1.22</v>
       </c>
       <c r="C997">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12390,7 +12390,7 @@
         <v>1.78</v>
       </c>
       <c r="C998">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12402,7 +12402,7 @@
         <v>0.93</v>
       </c>
       <c r="C999">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
         <v>0.77</v>
       </c>
       <c r="C1000">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
         <v>1.32</v>
       </c>
       <c r="C1001">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
         <v>1.07</v>
       </c>
       <c r="C1002">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
         <v>1.19</v>
       </c>
       <c r="C1003">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12462,7 +12462,7 @@
         <v>0.96</v>
       </c>
       <c r="C1004">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12474,7 +12474,7 @@
         <v>3.22</v>
       </c>
       <c r="C1005">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12486,7 +12486,7 @@
         <v>1.98</v>
       </c>
       <c r="C1006">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
         <v>0.64</v>
       </c>
       <c r="C1007">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12510,7 +12510,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="C1008">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12522,7 +12522,7 @@
         <v>1.28</v>
       </c>
       <c r="C1009">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12534,7 +12534,7 @@
         <v>1.54</v>
       </c>
       <c r="C1010">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12546,7 +12546,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="C1011">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12558,7 +12558,7 @@
         <v>7.31</v>
       </c>
       <c r="C1012">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12570,7 +12570,7 @@
         <v>1.63</v>
       </c>
       <c r="C1013">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
         <v>2.84</v>
       </c>
       <c r="C1014">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12594,7 +12594,7 @@
         <v>5.8</v>
       </c>
       <c r="C1015">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12606,7 +12606,7 @@
         <v>3.16</v>
       </c>
       <c r="C1016">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
         <v>1.58</v>
       </c>
       <c r="C1017">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12630,7 +12630,7 @@
         <v>3.61</v>
       </c>
       <c r="C1018">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
         <v>1.92</v>
       </c>
       <c r="C1019">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12654,7 +12654,7 @@
         <v>1.07</v>
       </c>
       <c r="C1020">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12666,7 +12666,7 @@
         <v>2.92</v>
       </c>
       <c r="C1021">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12678,7 +12678,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="C1022">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
         <v>3.78</v>
       </c>
       <c r="C1023">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
@@ -12702,7 +12702,7 @@
         <v>6.42</v>
       </c>
       <c r="C1024">
-        <f t="shared" ref="C1024:C1036" si="16">IF(A1024&gt;=0,1,2)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
